--- a/RAW/RPOS/IMD Template.xlsx
+++ b/RAW/RPOS/IMD Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>ItemCode</t>
   </si>
@@ -50,6 +50,105 @@
   </si>
   <si>
     <t>onHold</t>
+  </si>
+  <si>
+    <t>SAMPLE 001</t>
+  </si>
+  <si>
+    <t>SAMPLE 002</t>
+  </si>
+  <si>
+    <t>SAMPLE 003</t>
+  </si>
+  <si>
+    <t>SAMPLE 004</t>
+  </si>
+  <si>
+    <t>SAMPLE 005</t>
+  </si>
+  <si>
+    <t>SAMPLE 006</t>
+  </si>
+  <si>
+    <t>SAMPLE 007</t>
+  </si>
+  <si>
+    <t>SAMPLE 008</t>
+  </si>
+  <si>
+    <t>SAMPLE 009</t>
+  </si>
+  <si>
+    <t>SAMPLE 010</t>
+  </si>
+  <si>
+    <t>SHORT KATANA</t>
+  </si>
+  <si>
+    <t>GLOCK 9</t>
+  </si>
+  <si>
+    <t>REVOLVER</t>
+  </si>
+  <si>
+    <t>BRACER</t>
+  </si>
+  <si>
+    <t>PHASE BOOTS</t>
+  </si>
+  <si>
+    <t>CIRCLET</t>
+  </si>
+  <si>
+    <t>WRAITH BAND</t>
+  </si>
+  <si>
+    <t>ROCKET PROFEL GRENADE</t>
+  </si>
+  <si>
+    <t>TOMBSTONE</t>
+  </si>
+  <si>
+    <t>CASKET</t>
+  </si>
+  <si>
+    <t>WEAPON</t>
+  </si>
+  <si>
+    <t>DOTA</t>
+  </si>
+  <si>
+    <t>APPLIANCES</t>
+  </si>
+  <si>
+    <t>SWORD</t>
+  </si>
+  <si>
+    <t>GUN</t>
+  </si>
+  <si>
+    <t>LV1</t>
+  </si>
+  <si>
+    <t>LV2</t>
+  </si>
+  <si>
+    <t>DEAD</t>
+  </si>
+  <si>
+    <t>PIECE</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -406,11 +505,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -457,6 +554,296 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>13500</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>9300</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4">
+        <v>9000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>650</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>95000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10">
+        <v>3000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <v>9000</v>
+      </c>
+      <c r="I11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RAW/RPOS/IMD Template.xlsx
+++ b/RAW/RPOS/IMD Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
   <si>
     <t>ItemCode</t>
   </si>
@@ -143,12 +143,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
@@ -200,10 +194,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -517,7 +516,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -580,7 +579,7 @@
         <v>42</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -609,7 +608,7 @@
         <v>42</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -637,8 +636,8 @@
       <c r="J4" t="s">
         <v>42</v>
       </c>
-      <c r="K4" t="s">
-        <v>43</v>
+      <c r="K4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -666,8 +665,8 @@
       <c r="J5" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
-        <v>43</v>
+      <c r="K5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -686,6 +685,9 @@
       <c r="F6" t="s">
         <v>40</v>
       </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
       <c r="H6">
         <v>650</v>
       </c>
@@ -695,8 +697,8 @@
       <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" t="s">
-        <v>44</v>
+      <c r="K6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -715,8 +717,11 @@
       <c r="F7" t="s">
         <v>40</v>
       </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
       <c r="H7">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="I7" t="s">
         <v>41</v>
@@ -724,8 +729,8 @@
       <c r="J7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" t="s">
-        <v>44</v>
+      <c r="K7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -753,8 +758,8 @@
       <c r="J8" t="s">
         <v>42</v>
       </c>
-      <c r="K8" t="s">
-        <v>44</v>
+      <c r="K8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -782,8 +787,8 @@
       <c r="J9" t="s">
         <v>42</v>
       </c>
-      <c r="K9" t="s">
-        <v>44</v>
+      <c r="K9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -811,8 +816,8 @@
       <c r="J10" t="s">
         <v>42</v>
       </c>
-      <c r="K10" t="s">
-        <v>43</v>
+      <c r="K10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -840,8 +845,8 @@
       <c r="J11" t="s">
         <v>42</v>
       </c>
-      <c r="K11" t="s">
-        <v>43</v>
+      <c r="K11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/RAW/RPOS/IMD Template.xlsx
+++ b/RAW/RPOS/IMD Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>ItemCode</t>
   </si>
@@ -505,7 +505,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,8 +578,8 @@
       <c r="J2" t="s">
         <v>42</v>
       </c>
-      <c r="K2" t="s">
-        <v>41</v>
+      <c r="K2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -607,8 +607,8 @@
       <c r="J3" t="s">
         <v>42</v>
       </c>
-      <c r="K3" t="s">
-        <v>41</v>
+      <c r="K3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">

--- a/RAW/RPOS/IMD Template.xlsx
+++ b/RAW/RPOS/IMD Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>ItemCode</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>GLOCK 9 - SILVER</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,6 +852,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>10800</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
